--- a/olympics/nanntonaku33333.xlsx
+++ b/olympics/nanntonaku33333.xlsx
@@ -7,17 +7,17 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Sheet7" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet8" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet9" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet10" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet12" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Sheet6" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -626,16 +626,16 @@
     <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
+        <v>46039</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>46040</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>46041</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>46042</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>46043</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>46044</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>46045</v>
       </c>
     </row>
     <row r="3">
@@ -910,16 +910,16 @@
     <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
-        <v>46046</v>
+        <v>46049</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>46047</v>
+        <v>46050</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46048</v>
+        <v>46051</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46049</v>
+        <v>46052</v>
       </c>
     </row>
     <row r="3">
@@ -1041,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1049,124 +1049,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
-        <v>46026</v>
+        <v>46036</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>46027</v>
+        <v>46037</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46028</v>
+        <v>46038</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46029</v>
+        <v>46039</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>aさん</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>w駅</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>h駅</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>g駅</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>f駅</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>bさん</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>e駅</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>k駅</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>p駅</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>cさん</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>y駅</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>l駅</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>n駅</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>o駅</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>dさん</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>z駅</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>v駅</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>i駅</t>
         </is>
@@ -1183,7 +1182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,124 +1190,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
-        <v>46028</v>
+        <v>46038</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>46029</v>
+        <v>46039</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46030</v>
+        <v>46040</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46031</v>
+        <v>46041</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>aさん</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>w駅</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>h駅</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>g駅</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>f駅</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>bさん</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>e駅</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>k駅</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>p駅</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>cさん</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>y駅</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>l駅</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>n駅</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>o駅</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>dさん</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>z駅</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>v駅</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>i駅</t>
         </is>
@@ -1325,7 +1323,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1333,124 +1331,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
-        <v>46030</v>
+        <v>46040</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>46031</v>
+        <v>46041</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46032</v>
+        <v>46042</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46033</v>
+        <v>46043</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>aさん</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>w駅</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>h駅</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>g駅</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>f駅</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>bさん</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>e駅</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>k駅</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>p駅</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>cさん</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>y駅</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>l駅</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>n駅</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>o駅</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>dさん</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>z駅</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>v駅</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>i駅</t>
         </is>
@@ -1467,7 +1464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,124 +1472,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
-        <v>46032</v>
+        <v>46042</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>46033</v>
+        <v>46043</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46034</v>
+        <v>46044</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46035</v>
+        <v>46045</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>aさん</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>w駅</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>h駅</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>g駅</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>f駅</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>bさん</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>e駅</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>k駅</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>p駅</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>cさん</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>y駅</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>l駅</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>n駅</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>o駅</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>dさん</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>z駅</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>v駅</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>i駅</t>
         </is>
@@ -1609,7 +1605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1617,124 +1613,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
-        <v>46034</v>
+        <v>46044</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>46035</v>
+        <v>46045</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46036</v>
+        <v>46046</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46037</v>
+        <v>46047</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>aさん</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>w駅</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>h駅</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>g駅</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>f駅</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>bさん</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>e駅</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>k駅</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>p駅</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>cさん</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>y駅</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>l駅</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>n駅</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>o駅</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>dさん</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>z駅</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>v駅</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>i駅</t>
         </is>
@@ -1751,7 +1746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1759,124 +1754,123 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
-        <v>46036</v>
+        <v>46046</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>46037</v>
+        <v>46047</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46038</v>
+        <v>46048</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46039</v>
+        <v>46049</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="0" t="inlineStr">
         <is>
           <t>aさん</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="0" t="inlineStr">
         <is>
           <t>w駅</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="0" t="inlineStr">
         <is>
           <t>h駅</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="0" t="inlineStr">
         <is>
           <t>g駅</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" s="0" t="inlineStr">
         <is>
           <t>f駅</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="0" t="inlineStr">
         <is>
           <t>bさん</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>e駅</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="0" t="inlineStr">
         <is>
           <t>k駅</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
         <is>
           <t>p駅</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>cさん</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>y駅</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="0" t="inlineStr">
         <is>
           <t>l駅</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="0" t="inlineStr">
         <is>
           <t>n駅</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="0" t="inlineStr">
         <is>
           <t>o駅</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>dさん</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
         <is>
           <t>z駅</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>m駅</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>m駅</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>v駅</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="0" t="inlineStr">
         <is>
           <t>i駅</t>
         </is>
@@ -1904,16 +1898,16 @@
     <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
-        <v>46038</v>
+        <v>46029</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>46039</v>
+        <v>46030</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46040</v>
+        <v>46031</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46041</v>
+        <v>46032</v>
       </c>
     </row>
     <row r="3">
@@ -2046,16 +2040,16 @@
     <row r="1"/>
     <row r="2">
       <c r="C2" s="2" t="n">
-        <v>46040</v>
+        <v>46034</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>46041</v>
+        <v>46035</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>46042</v>
+        <v>46036</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>46043</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="3">
